--- a/biology/Botanique/Cucurbita/Cucurbita.xlsx
+++ b/biology/Botanique/Cucurbita/Cucurbita.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cucurbita est un genre de plante à fleurs de la famille des Cucurbitacées, de la sous-famille des Cucurbitoideae et de la tribu des Cucurbiteae.Il comprend 18 espèces[1] de plantes grimpantes ou rampantes, toutes originaires d'Amérique, dont 5 sont couramment cultivées dans le monde. C'est un genre d'une assez grande importance économique, il comprend en effet la plupart des espèces cultivées sous le nom de courge.
-Le terme cucurbita désignait en latin la gourde, autre cucurbitacée d'origine africaine, connue en Europe depuis l'Antiquité. Cucurbita comme le genre Cucumis (« concombre ») est un terme issu d'un redoublement syllabique renvoyant à une idée de récipient creux et de rotondité, dont l'aire s'étendrait à la fois sur le domaine des langues indo-européennes et sur celui des langues sémitiques[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cucurbita est un genre de plante à fleurs de la famille des Cucurbitacées, de la sous-famille des Cucurbitoideae et de la tribu des Cucurbiteae.Il comprend 18 espèces de plantes grimpantes ou rampantes, toutes originaires d'Amérique, dont 5 sont couramment cultivées dans le monde. C'est un genre d'une assez grande importance économique, il comprend en effet la plupart des espèces cultivées sous le nom de courge.
+Le terme cucurbita désignait en latin la gourde, autre cucurbitacée d'origine africaine, connue en Europe depuis l'Antiquité. Cucurbita comme le genre Cucumis (« concombre ») est un terme issu d'un redoublement syllabique renvoyant à une idée de récipient creux et de rotondité, dont l'aire s'étendrait à la fois sur le domaine des langues indo-européennes et sur celui des langues sémitiques.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Toutes les espèces du genre Cucurbita sont originaires des régions tropicales d'Amérique.
 Plusieurs d'entre elles ont été domestiquées très tôt par les peuples amérindiens. Cucurbita pepo n'existe plus à l'état sauvage, mais ses ancêtres sont probablement originaires d'Amérique du Nord. Les trois principales espèces domestiquées (Cucurbita pepo, Cucurbita maxima et Cucurbita moschata) sont désormais cultivées dans tous les continents.
@@ -544,7 +558,9 @@
           <t>Caractéristiques générales</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les espèces de Curcubita sont des plantes herbacées annuelles ou pérennes à port rampant ou grimpant, aux tiges munies de vrilles. Les tiges rampantes, plus ou moins coureuses, peuvent atteindre de 3 à 10 mètres de long, et souvent émettent des racines adventives au niveau des nœuds.
 Les feuilles sont de grande taille, à nervation palmée, plus ou moins profondément lobées, rudes, souvent hérissées de poils.
@@ -579,7 +595,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Cucurbita argyrosperma C. Huber : courge cultivée aux États-Unis sous le nom de Cushaw.
 Cucurbita cordata S. Watson
@@ -628,7 +646,9 @@
           <t>Espèces cultivées</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Pour plus de détails, voir l'article Courge
 </t>
